--- a/2019 LINSEED COOP DATA.xlsx
+++ b/2019 LINSEED COOP DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlantSCI\code\metpipeline\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlantSCI\CDCFlaxMetPipline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F56A7CA-E66C-4005-898D-EE87135CA512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E8A66-C183-4D78-B3CD-F6C3A23AB020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,17 +552,19 @@
   <dimension ref="A1:J844"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="8" width="9.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="10" max="10" width="13.7109375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -25004,6 +25006,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100058C85B84F9A264BAC6F0627929DB641" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d3690acfc5f647d7af2e46f538be9b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f3f8dd5-f854-4a82-af3b-1712c9531ae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="397f1447dfe5d1ce85cef639673ed00f" ns3:_="">
     <xsd:import namespace="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
@@ -25173,12 +25181,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -25189,6 +25191,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C03631A-BAC0-40CF-AFE7-EF0B3214BCD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EBB5DF-F99D-4455-8EDC-E71F142E7F39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25206,22 +25224,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C03631A-BAC0-40CF-AFE7-EF0B3214BCD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A0B98CD-62EA-4616-B054-45C6D31774F1}">
   <ds:schemaRefs>

--- a/2019 LINSEED COOP DATA.xlsx
+++ b/2019 LINSEED COOP DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PlantSCI\CDCFlaxMetPipline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5E8A66-C183-4D78-B3CD-F6C3A23AB020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32C09AB-CB59-4CAC-8E84-1B5E7A3B35B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
@@ -25006,12 +25006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100058C85B84F9A264BAC6F0627929DB641" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d3690acfc5f647d7af2e46f538be9b9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3f3f8dd5-f854-4a82-af3b-1712c9531ae6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="397f1447dfe5d1ce85cef639673ed00f" ns3:_="">
     <xsd:import namespace="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
@@ -25181,6 +25175,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -25191,22 +25191,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C03631A-BAC0-40CF-AFE7-EF0B3214BCD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EBB5DF-F99D-4455-8EDC-E71F142E7F39}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25224,6 +25208,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C03631A-BAC0-40CF-AFE7-EF0B3214BCD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3f3f8dd5-f854-4a82-af3b-1712c9531ae6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A0B98CD-62EA-4616-B054-45C6D31774F1}">
   <ds:schemaRefs>
